--- a/Code/Results/Cases/Case_4_212/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_212/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.016003737648713</v>
+        <v>1.078931194557045</v>
       </c>
       <c r="D2">
-        <v>1.027825194967483</v>
+        <v>1.069706332033083</v>
       </c>
       <c r="E2">
-        <v>1.032995092191687</v>
+        <v>1.091854854545393</v>
       </c>
       <c r="F2">
-        <v>1.038326028919235</v>
+        <v>1.097265365047157</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052122093317043</v>
+        <v>1.052424093324181</v>
       </c>
       <c r="J2">
-        <v>1.037716093456975</v>
+        <v>1.083818215486275</v>
       </c>
       <c r="K2">
-        <v>1.038910027461968</v>
+        <v>1.072408122771914</v>
       </c>
       <c r="L2">
-        <v>1.044013122344631</v>
+        <v>1.094498783120843</v>
       </c>
       <c r="M2">
-        <v>1.049276045723576</v>
+        <v>1.099895541633926</v>
       </c>
       <c r="N2">
-        <v>1.039189769337383</v>
+        <v>1.085357361667952</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.028211100117123</v>
+        <v>1.081028077441054</v>
       </c>
       <c r="D3">
-        <v>1.037315088744367</v>
+        <v>1.071297156754798</v>
       </c>
       <c r="E3">
-        <v>1.044762736896518</v>
+        <v>1.093925094214011</v>
       </c>
       <c r="F3">
-        <v>1.050156151077755</v>
+        <v>1.099355220336491</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056804714515482</v>
+        <v>1.053063776295608</v>
       </c>
       <c r="J3">
-        <v>1.04796116898388</v>
+        <v>1.085570578081424</v>
       </c>
       <c r="K3">
-        <v>1.047491780835569</v>
+        <v>1.073813250644275</v>
       </c>
       <c r="L3">
-        <v>1.054853198188018</v>
+        <v>1.096386434234268</v>
       </c>
       <c r="M3">
-        <v>1.060185107534576</v>
+        <v>1.101803780736628</v>
       </c>
       <c r="N3">
-        <v>1.049449394046663</v>
+        <v>1.087112212818986</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.035731448884911</v>
+        <v>1.082378548724132</v>
       </c>
       <c r="D4">
-        <v>1.043157983352357</v>
+        <v>1.07232052982498</v>
       </c>
       <c r="E4">
-        <v>1.052018704877448</v>
+        <v>1.095258710284686</v>
       </c>
       <c r="F4">
-        <v>1.057452782011536</v>
+        <v>1.100701674007758</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059668558090078</v>
+        <v>1.053473273224076</v>
       </c>
       <c r="J4">
-        <v>1.054263291778814</v>
+        <v>1.086697923549498</v>
       </c>
       <c r="K4">
-        <v>1.052762004736909</v>
+        <v>1.074715985347663</v>
       </c>
       <c r="L4">
-        <v>1.061527370750931</v>
+        <v>1.09760150843662</v>
       </c>
       <c r="M4">
-        <v>1.066903935256016</v>
+        <v>1.103032321902955</v>
       </c>
       <c r="N4">
-        <v>1.05576046657883</v>
+        <v>1.088241159246932</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.038810525778411</v>
+        <v>1.082944799335117</v>
       </c>
       <c r="D5">
-        <v>1.045549260877452</v>
+        <v>1.072749345557698</v>
       </c>
       <c r="E5">
-        <v>1.05499096782224</v>
+        <v>1.095817965645694</v>
       </c>
       <c r="F5">
-        <v>1.060442197917802</v>
+        <v>1.101266360939846</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060836027298912</v>
+        <v>1.053644379607494</v>
       </c>
       <c r="J5">
-        <v>1.056841265077465</v>
+        <v>1.087170320157604</v>
       </c>
       <c r="K5">
-        <v>1.054915737251347</v>
+        <v>1.07509396856895</v>
       </c>
       <c r="L5">
-        <v>1.064258971888057</v>
+        <v>1.098110832568895</v>
       </c>
       <c r="M5">
-        <v>1.069654321351372</v>
+        <v>1.103547342252667</v>
       </c>
       <c r="N5">
-        <v>1.058342100895263</v>
+        <v>1.088714226712406</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.039322895147725</v>
+        <v>1.083039789034411</v>
       </c>
       <c r="D6">
-        <v>1.045947114368991</v>
+        <v>1.072821263637368</v>
       </c>
       <c r="E6">
-        <v>1.055485643832486</v>
+        <v>1.095911786088227</v>
       </c>
       <c r="F6">
-        <v>1.060939757456802</v>
+        <v>1.101361095396705</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061029997258609</v>
+        <v>1.053673048129139</v>
       </c>
       <c r="J6">
-        <v>1.057270110301027</v>
+        <v>1.087249548183546</v>
       </c>
       <c r="K6">
-        <v>1.055273883940462</v>
+        <v>1.07515734480073</v>
       </c>
       <c r="L6">
-        <v>1.064713457203198</v>
+        <v>1.098196263646557</v>
       </c>
       <c r="M6">
-        <v>1.070111961658381</v>
+        <v>1.103633731784149</v>
       </c>
       <c r="N6">
-        <v>1.058771555128231</v>
+        <v>1.088793567251233</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.035772905837838</v>
+        <v>1.08238612079287</v>
       </c>
       <c r="D7">
-        <v>1.043190183901114</v>
+        <v>1.072326265189239</v>
       </c>
       <c r="E7">
-        <v>1.052058718147572</v>
+        <v>1.095266188528125</v>
       </c>
       <c r="F7">
-        <v>1.057493024248985</v>
+        <v>1.100709224692074</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05968429727236</v>
+        <v>1.053475563650083</v>
       </c>
       <c r="J7">
-        <v>1.054298011148875</v>
+        <v>1.08670424174641</v>
       </c>
       <c r="K7">
-        <v>1.052791019057878</v>
+        <v>1.074721041943409</v>
       </c>
       <c r="L7">
-        <v>1.061564153446835</v>
+        <v>1.097608319876921</v>
       </c>
       <c r="M7">
-        <v>1.066940968900714</v>
+        <v>1.103039209320081</v>
       </c>
       <c r="N7">
-        <v>1.055795235254379</v>
+        <v>1.088247486416408</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.020212993976439</v>
+        <v>1.079641181326128</v>
       </c>
       <c r="D8">
-        <v>1.031098023869394</v>
+        <v>1.070245215769969</v>
       </c>
       <c r="E8">
-        <v>1.03705125015676</v>
+        <v>1.09255575659156</v>
       </c>
       <c r="F8">
-        <v>1.042403253616424</v>
+        <v>1.097972866225173</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.053741140559376</v>
+        <v>1.052641199922584</v>
       </c>
       <c r="J8">
-        <v>1.041250677357177</v>
+        <v>1.084411808330174</v>
       </c>
       <c r="K8">
-        <v>1.041872605734058</v>
+        <v>1.072884348062853</v>
       </c>
       <c r="L8">
-        <v>1.047751680075797</v>
+        <v>1.095138059242187</v>
       </c>
       <c r="M8">
-        <v>1.053037919219756</v>
+        <v>1.100541745479277</v>
       </c>
       <c r="N8">
-        <v>1.042729372752146</v>
+        <v>1.085951797481776</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9894462362786762</v>
+        <v>1.074754091844387</v>
       </c>
       <c r="D9">
-        <v>1.007170825535621</v>
+        <v>1.066531061108504</v>
       </c>
       <c r="E9">
-        <v>1.007439722710434</v>
+        <v>1.08773248485356</v>
       </c>
       <c r="F9">
-        <v>1.01264843896373</v>
+        <v>1.09310502195826</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041816558960768</v>
+        <v>1.051136532707346</v>
       </c>
       <c r="J9">
-        <v>1.015377259781142</v>
+        <v>1.080320777143827</v>
       </c>
       <c r="K9">
-        <v>1.02014862266314</v>
+        <v>1.069597156873933</v>
       </c>
       <c r="L9">
-        <v>1.020413237884337</v>
+        <v>1.090735052530401</v>
       </c>
       <c r="M9">
-        <v>1.025539583935217</v>
+        <v>1.096091917014929</v>
       </c>
       <c r="N9">
-        <v>1.01681921195543</v>
+        <v>1.081854956561897</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9658771625015904</v>
+        <v>1.07146018575394</v>
       </c>
       <c r="D10">
-        <v>0.9888498362932284</v>
+        <v>1.064021679323892</v>
       </c>
       <c r="E10">
-        <v>0.9848135349143113</v>
+        <v>1.084483239234318</v>
       </c>
       <c r="F10">
-        <v>0.9899278481212623</v>
+        <v>1.089826813956528</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032568324240841</v>
+        <v>1.050109501139201</v>
       </c>
       <c r="J10">
-        <v>0.9955132307783934</v>
+        <v>1.077556977330175</v>
       </c>
       <c r="K10">
-        <v>1.003423371624144</v>
+        <v>1.067370059175899</v>
       </c>
       <c r="L10">
-        <v>0.999462508231488</v>
+        <v>1.087764109778325</v>
       </c>
       <c r="M10">
-        <v>1.004481371275228</v>
+        <v>1.093090511413509</v>
       </c>
       <c r="N10">
-        <v>0.9969269737530623</v>
+        <v>1.079087231835496</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9546885086613264</v>
+        <v>1.070024907238598</v>
       </c>
       <c r="D11">
-        <v>0.9801610927683377</v>
+        <v>1.062926829781533</v>
       </c>
       <c r="E11">
-        <v>0.9740907427705255</v>
+        <v>1.083067821320809</v>
       </c>
       <c r="F11">
-        <v>0.9791644573849815</v>
+        <v>1.088399034435255</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02815323907803</v>
+        <v>1.049658934712691</v>
       </c>
       <c r="J11">
-        <v>0.9860758219911891</v>
+        <v>1.0763511625339</v>
       </c>
       <c r="K11">
-        <v>0.9954670971432978</v>
+        <v>1.066396899773909</v>
       </c>
       <c r="L11">
-        <v>0.989518388376783</v>
+        <v>1.086468779840261</v>
       </c>
       <c r="M11">
-        <v>0.9944902968620825</v>
+        <v>1.091782169625628</v>
       </c>
       <c r="N11">
-        <v>0.9874761627628943</v>
+        <v>1.077879704643901</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9503541708806255</v>
+        <v>1.069490387847994</v>
       </c>
       <c r="D12">
-        <v>0.9767972252355325</v>
+        <v>1.062518879473069</v>
       </c>
       <c r="E12">
-        <v>0.9699401229730926</v>
+        <v>1.082540759283317</v>
       </c>
       <c r="F12">
-        <v>0.9749988036176991</v>
+        <v>1.08786740776236</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026439443017432</v>
+        <v>1.049490679208666</v>
       </c>
       <c r="J12">
-        <v>0.9824190866221499</v>
+        <v>1.075901870330168</v>
       </c>
       <c r="K12">
-        <v>0.9923828760607249</v>
+        <v>1.066034070863142</v>
       </c>
       <c r="L12">
-        <v>0.9856668073351524</v>
+        <v>1.085986262962108</v>
       </c>
       <c r="M12">
-        <v>0.9906211903918306</v>
+        <v>1.091294846478407</v>
       </c>
       <c r="N12">
-        <v>0.9838142344101976</v>
+        <v>1.077429774393706</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9512925742444819</v>
+        <v>1.069605107785405</v>
       </c>
       <c r="D13">
-        <v>0.9775254114809804</v>
+        <v>1.06260644438787</v>
       </c>
       <c r="E13">
-        <v>0.970838594880029</v>
+        <v>1.082653875933365</v>
       </c>
       <c r="F13">
-        <v>0.9759004981595019</v>
+        <v>1.087981502318384</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026810637244771</v>
+        <v>1.049526811340022</v>
       </c>
       <c r="J13">
-        <v>0.9832108157993668</v>
+        <v>1.075998308921809</v>
       </c>
       <c r="K13">
-        <v>0.9930507083309941</v>
+        <v>1.066111960668942</v>
       </c>
       <c r="L13">
-        <v>0.9865006550985518</v>
+        <v>1.086089827244472</v>
       </c>
       <c r="M13">
-        <v>0.9914588016556654</v>
+        <v>1.091399440503141</v>
       </c>
       <c r="N13">
-        <v>0.9846070879336588</v>
+        <v>1.077526349939209</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9543340825024684</v>
+        <v>1.069980752359962</v>
       </c>
       <c r="D14">
-        <v>0.9798859775549286</v>
+        <v>1.062893134666407</v>
       </c>
       <c r="E14">
-        <v>0.9737512707963702</v>
+        <v>1.083024281222065</v>
       </c>
       <c r="F14">
-        <v>0.9788237417171562</v>
+        <v>1.088355116470743</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028013166589789</v>
+        <v>1.049645045009721</v>
       </c>
       <c r="J14">
-        <v>0.985776818467428</v>
+        <v>1.076314052648212</v>
       </c>
       <c r="K14">
-        <v>0.995214933834095</v>
+        <v>1.066366936025466</v>
       </c>
       <c r="L14">
-        <v>0.9892034224185611</v>
+        <v>1.086428923087634</v>
       </c>
       <c r="M14">
-        <v>0.9941738841164737</v>
+        <v>1.091741915036005</v>
       </c>
       <c r="N14">
-        <v>0.9871767346198332</v>
+        <v>1.077842542057919</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.956183335950454</v>
+        <v>1.070212013531427</v>
       </c>
       <c r="D15">
-        <v>0.9813215053045693</v>
+        <v>1.063069604169986</v>
       </c>
       <c r="E15">
-        <v>0.9755226333974784</v>
+        <v>1.083252324982793</v>
       </c>
       <c r="F15">
-        <v>0.9806016217036466</v>
+        <v>1.088585140900558</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.02874387162611</v>
+        <v>1.049717773603644</v>
       </c>
       <c r="J15">
-        <v>0.9873368686280812</v>
+        <v>1.076508406321436</v>
       </c>
       <c r="K15">
-        <v>0.9965305404816952</v>
+        <v>1.066523854398047</v>
       </c>
       <c r="L15">
-        <v>0.9908468168574277</v>
+        <v>1.086637668063955</v>
       </c>
       <c r="M15">
-        <v>0.9958248543775752</v>
+        <v>1.09195274530219</v>
       </c>
       <c r="N15">
-        <v>0.9887390002306546</v>
+        <v>1.078037171735652</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9665965961408312</v>
+        <v>1.071555247406285</v>
       </c>
       <c r="D16">
-        <v>0.9894087556563979</v>
+        <v>1.064094163921975</v>
       </c>
       <c r="E16">
-        <v>0.9855034220960761</v>
+        <v>1.084576993958877</v>
       </c>
       <c r="F16">
-        <v>0.9906204358500511</v>
+        <v>1.089921392864552</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032851734071675</v>
+        <v>1.05013927908106</v>
       </c>
       <c r="J16">
-        <v>0.9961199301677836</v>
+        <v>1.077636809104287</v>
       </c>
       <c r="K16">
-        <v>1.00393465932309</v>
+        <v>1.06743445633499</v>
       </c>
       <c r="L16">
-        <v>1.000101980452119</v>
+        <v>1.087849886009037</v>
       </c>
       <c r="M16">
-        <v>1.005123949214997</v>
+        <v>1.093177154968806</v>
       </c>
       <c r="N16">
-        <v>0.9975345347251747</v>
+        <v>1.079167176979885</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.972846482232027</v>
+        <v>1.072395385073343</v>
       </c>
       <c r="D17">
-        <v>0.9942652225397031</v>
+        <v>1.064734606578346</v>
       </c>
       <c r="E17">
-        <v>0.9914986813444677</v>
+        <v>1.085405627434405</v>
       </c>
       <c r="F17">
-        <v>0.9966396239806943</v>
+        <v>1.090757340100284</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035311081932598</v>
+        <v>1.050402099985674</v>
       </c>
       <c r="J17">
-        <v>1.001389660966955</v>
+        <v>1.078342172485652</v>
       </c>
       <c r="K17">
-        <v>1.008374555929808</v>
+        <v>1.068003272546249</v>
       </c>
       <c r="L17">
-        <v>1.005657429681195</v>
+        <v>1.088607871208409</v>
       </c>
       <c r="M17">
-        <v>1.010706830422408</v>
+        <v>1.093942835611402</v>
       </c>
       <c r="N17">
-        <v>1.002811749146528</v>
+        <v>1.079873542058158</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9763995613693893</v>
+        <v>1.07288455807638</v>
       </c>
       <c r="D18">
-        <v>0.997026863091189</v>
+        <v>1.065107370125807</v>
       </c>
       <c r="E18">
-        <v>0.9949086319216839</v>
+        <v>1.085888140512836</v>
       </c>
       <c r="F18">
-        <v>1.00006355830811</v>
+        <v>1.091244136465302</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03670694846471</v>
+        <v>1.050554835108539</v>
       </c>
       <c r="J18">
-        <v>1.004384800465151</v>
+        <v>1.078752726236446</v>
       </c>
       <c r="K18">
-        <v>1.010897114859709</v>
+        <v>1.068334205324654</v>
       </c>
       <c r="L18">
-        <v>1.008815831570337</v>
+        <v>1.089049135772182</v>
       </c>
       <c r="M18">
-        <v>1.013881194743049</v>
+        <v>1.094388606041602</v>
       </c>
       <c r="N18">
-        <v>1.005811142086359</v>
+        <v>1.080284678842369</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9775961873102214</v>
+        <v>1.073051207943152</v>
       </c>
       <c r="D19">
-        <v>0.9979570483616876</v>
+        <v>1.065234338833569</v>
       </c>
       <c r="E19">
-        <v>0.9960573178848434</v>
+        <v>1.086052527991987</v>
       </c>
       <c r="F19">
-        <v>1.001217016779532</v>
+        <v>1.091409987365466</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037176662764357</v>
+        <v>1.050606818659833</v>
       </c>
       <c r="J19">
-        <v>1.00539339039514</v>
+        <v>1.078892567499219</v>
       </c>
       <c r="K19">
-        <v>1.011746405902348</v>
+        <v>1.068446901909343</v>
       </c>
       <c r="L19">
-        <v>1.009879545044474</v>
+        <v>1.089199451629631</v>
       </c>
       <c r="M19">
-        <v>1.014950345113299</v>
+        <v>1.09454046120641</v>
       </c>
       <c r="N19">
-        <v>1.006821164329735</v>
+        <v>1.080424718695775</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9721856753714028</v>
+        <v>1.072305336031103</v>
       </c>
       <c r="D20">
-        <v>0.9937516631016545</v>
+        <v>1.064665975686601</v>
       </c>
       <c r="E20">
-        <v>0.9908646233721657</v>
+        <v>1.085316807470102</v>
       </c>
       <c r="F20">
-        <v>0.9960029959118332</v>
+        <v>1.090667733649361</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035051289082449</v>
+        <v>1.050373960223866</v>
       </c>
       <c r="J20">
-        <v>1.000832559963296</v>
+        <v>1.078266584204605</v>
       </c>
       <c r="K20">
-        <v>1.007905279045056</v>
+        <v>1.067942331890503</v>
       </c>
       <c r="L20">
-        <v>1.005070032180417</v>
+        <v>1.088526635316904</v>
       </c>
       <c r="M20">
-        <v>1.010116493823362</v>
+        <v>1.093860772287593</v>
       </c>
       <c r="N20">
-        <v>1.002253856995543</v>
+        <v>1.079797846433081</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9534436539985561</v>
+        <v>1.069870173187928</v>
       </c>
       <c r="D21">
-        <v>0.9791948382562392</v>
+        <v>1.062808746964512</v>
       </c>
       <c r="E21">
-        <v>0.9728984657311532</v>
+        <v>1.08291524265972</v>
       </c>
       <c r="F21">
-        <v>0.9779678234159396</v>
+        <v>1.088245132231614</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027661206981968</v>
+        <v>1.049610252974568</v>
       </c>
       <c r="J21">
-        <v>0.9850256172554646</v>
+        <v>1.076221112899697</v>
       </c>
       <c r="K21">
-        <v>0.9945813899969336</v>
+        <v>1.066291889766628</v>
       </c>
       <c r="L21">
-        <v>0.9884121420140146</v>
+        <v>1.086329106039763</v>
       </c>
       <c r="M21">
-        <v>0.9933789797459205</v>
+        <v>1.09164110230491</v>
       </c>
       <c r="N21">
-        <v>0.986424466615985</v>
+        <v>1.077749470324301</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9406043997548222</v>
+        <v>1.068331008788447</v>
       </c>
       <c r="D22">
-        <v>0.9692353159971087</v>
+        <v>1.061633643827671</v>
       </c>
       <c r="E22">
-        <v>0.9606103817245405</v>
+        <v>1.081397667827493</v>
       </c>
       <c r="F22">
-        <v>0.9656366197360082</v>
+        <v>1.086714487196137</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022578341560212</v>
+        <v>1.049124893454625</v>
       </c>
       <c r="J22">
-        <v>0.9741925092215338</v>
+        <v>1.074926931971127</v>
       </c>
       <c r="K22">
-        <v>0.9854418963109517</v>
+        <v>1.065246340990317</v>
       </c>
       <c r="L22">
-        <v>0.9770047338813899</v>
+        <v>1.084939465379039</v>
       </c>
       <c r="M22">
-        <v>0.9819210051264524</v>
+        <v>1.090237696631275</v>
       </c>
       <c r="N22">
-        <v>0.9755759743260711</v>
+        <v>1.076453451510368</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9475238531705412</v>
+        <v>1.069147729010615</v>
       </c>
       <c r="D23">
-        <v>0.9746013133954979</v>
+        <v>1.062257299485673</v>
       </c>
       <c r="E23">
-        <v>0.967230766765804</v>
+        <v>1.08220289832196</v>
       </c>
       <c r="F23">
-        <v>0.9722798348361092</v>
+        <v>1.087526631606146</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025319404649048</v>
+        <v>1.049382688561986</v>
       </c>
       <c r="J23">
-        <v>0.980031066868517</v>
+        <v>1.075613782892475</v>
       </c>
       <c r="K23">
-        <v>0.9903683649500558</v>
+        <v>1.065801360580561</v>
       </c>
       <c r="L23">
-        <v>0.9831519724461264</v>
+        <v>1.085676908119022</v>
       </c>
       <c r="M23">
-        <v>0.9880951066448607</v>
+        <v>1.090982421685812</v>
       </c>
       <c r="N23">
-        <v>0.9814228233946048</v>
+        <v>1.077141277838808</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9724845488033772</v>
+        <v>1.072346027988549</v>
       </c>
       <c r="D24">
-        <v>0.9939839364327735</v>
+        <v>1.064696989490179</v>
       </c>
       <c r="E24">
-        <v>0.9911513936182396</v>
+        <v>1.085356943904888</v>
       </c>
       <c r="F24">
-        <v>0.996290927392512</v>
+        <v>1.09070822541017</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035168796789999</v>
+        <v>1.050386677112657</v>
       </c>
       <c r="J24">
-        <v>1.001084530995588</v>
+        <v>1.078300741990523</v>
       </c>
       <c r="K24">
-        <v>1.008117531050665</v>
+        <v>1.067969870969012</v>
       </c>
       <c r="L24">
-        <v>1.005335703292908</v>
+        <v>1.088563344961076</v>
       </c>
       <c r="M24">
-        <v>1.010383493104229</v>
+        <v>1.093897855759532</v>
       </c>
       <c r="N24">
-        <v>1.002506185855602</v>
+        <v>1.079832052726973</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.997868703478093</v>
+        <v>1.076023681816433</v>
       </c>
       <c r="D25">
-        <v>1.013721185315549</v>
+        <v>1.067497003861766</v>
       </c>
       <c r="E25">
-        <v>1.015537559164294</v>
+        <v>1.088985210323747</v>
       </c>
       <c r="F25">
-        <v>1.020783120100615</v>
+        <v>1.094369138141114</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045100127578839</v>
+        <v>1.051529683020811</v>
       </c>
       <c r="J25">
-        <v>1.022468007756836</v>
+        <v>1.081384693757194</v>
       </c>
       <c r="K25">
-        <v>1.026110167252795</v>
+        <v>1.07045314071996</v>
       </c>
       <c r="L25">
-        <v>1.027899369357147</v>
+        <v>1.091879467701383</v>
       </c>
       <c r="M25">
-        <v>1.03306714971543</v>
+        <v>1.097248304454665</v>
       </c>
       <c r="N25">
-        <v>1.023920029606571</v>
+        <v>1.082920384058887</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_212/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_212/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.078931194557045</v>
+        <v>1.016003737648712</v>
       </c>
       <c r="D2">
-        <v>1.069706332033083</v>
+        <v>1.027825194967482</v>
       </c>
       <c r="E2">
-        <v>1.091854854545393</v>
+        <v>1.032995092191687</v>
       </c>
       <c r="F2">
-        <v>1.097265365047157</v>
+        <v>1.038326028919235</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.052424093324181</v>
+        <v>1.052122093317043</v>
       </c>
       <c r="J2">
-        <v>1.083818215486275</v>
+        <v>1.037716093456974</v>
       </c>
       <c r="K2">
-        <v>1.072408122771914</v>
+        <v>1.038910027461967</v>
       </c>
       <c r="L2">
-        <v>1.094498783120843</v>
+        <v>1.044013122344631</v>
       </c>
       <c r="M2">
-        <v>1.099895541633926</v>
+        <v>1.049276045723576</v>
       </c>
       <c r="N2">
-        <v>1.085357361667952</v>
+        <v>1.039189769337383</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.081028077441054</v>
+        <v>1.028211100117125</v>
       </c>
       <c r="D3">
-        <v>1.071297156754798</v>
+        <v>1.037315088744369</v>
       </c>
       <c r="E3">
-        <v>1.093925094214011</v>
+        <v>1.04476273689652</v>
       </c>
       <c r="F3">
-        <v>1.099355220336491</v>
+        <v>1.050156151077757</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.053063776295608</v>
+        <v>1.056804714515483</v>
       </c>
       <c r="J3">
-        <v>1.085570578081424</v>
+        <v>1.047961168983882</v>
       </c>
       <c r="K3">
-        <v>1.073813250644275</v>
+        <v>1.047491780835571</v>
       </c>
       <c r="L3">
-        <v>1.096386434234268</v>
+        <v>1.05485319818802</v>
       </c>
       <c r="M3">
-        <v>1.101803780736628</v>
+        <v>1.060185107534577</v>
       </c>
       <c r="N3">
-        <v>1.087112212818986</v>
+        <v>1.049449394046666</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.082378548724132</v>
+        <v>1.035731448884911</v>
       </c>
       <c r="D4">
-        <v>1.07232052982498</v>
+        <v>1.043157983352357</v>
       </c>
       <c r="E4">
-        <v>1.095258710284686</v>
+        <v>1.052018704877447</v>
       </c>
       <c r="F4">
-        <v>1.100701674007758</v>
+        <v>1.057452782011536</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053473273224076</v>
+        <v>1.059668558090078</v>
       </c>
       <c r="J4">
-        <v>1.086697923549498</v>
+        <v>1.054263291778814</v>
       </c>
       <c r="K4">
-        <v>1.074715985347663</v>
+        <v>1.052762004736909</v>
       </c>
       <c r="L4">
-        <v>1.09760150843662</v>
+        <v>1.061527370750931</v>
       </c>
       <c r="M4">
-        <v>1.103032321902955</v>
+        <v>1.066903935256016</v>
       </c>
       <c r="N4">
-        <v>1.088241159246932</v>
+        <v>1.05576046657883</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.082944799335117</v>
+        <v>1.038810525778415</v>
       </c>
       <c r="D5">
-        <v>1.072749345557698</v>
+        <v>1.045549260877455</v>
       </c>
       <c r="E5">
-        <v>1.095817965645694</v>
+        <v>1.054990967822245</v>
       </c>
       <c r="F5">
-        <v>1.101266360939846</v>
+        <v>1.060442197917806</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053644379607494</v>
+        <v>1.060836027298914</v>
       </c>
       <c r="J5">
-        <v>1.087170320157604</v>
+        <v>1.05684126507747</v>
       </c>
       <c r="K5">
-        <v>1.07509396856895</v>
+        <v>1.05491573725135</v>
       </c>
       <c r="L5">
-        <v>1.098110832568895</v>
+        <v>1.064258971888061</v>
       </c>
       <c r="M5">
-        <v>1.103547342252667</v>
+        <v>1.069654321351375</v>
       </c>
       <c r="N5">
-        <v>1.088714226712406</v>
+        <v>1.058342100895267</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.083039789034411</v>
+        <v>1.039322895147729</v>
       </c>
       <c r="D6">
-        <v>1.072821263637368</v>
+        <v>1.045947114368994</v>
       </c>
       <c r="E6">
-        <v>1.095911786088227</v>
+        <v>1.05548564383249</v>
       </c>
       <c r="F6">
-        <v>1.101361095396705</v>
+        <v>1.060939757456806</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053673048129139</v>
+        <v>1.06102999725861</v>
       </c>
       <c r="J6">
-        <v>1.087249548183546</v>
+        <v>1.05727011030103</v>
       </c>
       <c r="K6">
-        <v>1.07515734480073</v>
+        <v>1.055273883940465</v>
       </c>
       <c r="L6">
-        <v>1.098196263646557</v>
+        <v>1.064713457203201</v>
       </c>
       <c r="M6">
-        <v>1.103633731784149</v>
+        <v>1.070111961658385</v>
       </c>
       <c r="N6">
-        <v>1.088793567251233</v>
+        <v>1.058771555128235</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.08238612079287</v>
+        <v>1.035772905837838</v>
       </c>
       <c r="D7">
-        <v>1.072326265189239</v>
+        <v>1.043190183901114</v>
       </c>
       <c r="E7">
-        <v>1.095266188528125</v>
+        <v>1.052058718147572</v>
       </c>
       <c r="F7">
-        <v>1.100709224692074</v>
+        <v>1.057493024248986</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053475563650083</v>
+        <v>1.05968429727236</v>
       </c>
       <c r="J7">
-        <v>1.08670424174641</v>
+        <v>1.054298011148875</v>
       </c>
       <c r="K7">
-        <v>1.074721041943409</v>
+        <v>1.052791019057878</v>
       </c>
       <c r="L7">
-        <v>1.097608319876921</v>
+        <v>1.061564153446835</v>
       </c>
       <c r="M7">
-        <v>1.103039209320081</v>
+        <v>1.066940968900714</v>
       </c>
       <c r="N7">
-        <v>1.088247486416408</v>
+        <v>1.055795235254379</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.079641181326128</v>
+        <v>1.020212993976438</v>
       </c>
       <c r="D8">
-        <v>1.070245215769969</v>
+        <v>1.031098023869394</v>
       </c>
       <c r="E8">
-        <v>1.09255575659156</v>
+        <v>1.037051250156759</v>
       </c>
       <c r="F8">
-        <v>1.097972866225173</v>
+        <v>1.042403253616423</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052641199922584</v>
+        <v>1.053741140559376</v>
       </c>
       <c r="J8">
-        <v>1.084411808330174</v>
+        <v>1.041250677357176</v>
       </c>
       <c r="K8">
-        <v>1.072884348062853</v>
+        <v>1.041872605734058</v>
       </c>
       <c r="L8">
-        <v>1.095138059242187</v>
+        <v>1.047751680075796</v>
       </c>
       <c r="M8">
-        <v>1.100541745479277</v>
+        <v>1.053037919219754</v>
       </c>
       <c r="N8">
-        <v>1.085951797481776</v>
+        <v>1.042729372752145</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.074754091844387</v>
+        <v>0.9894462362786725</v>
       </c>
       <c r="D9">
-        <v>1.066531061108504</v>
+        <v>1.007170825535618</v>
       </c>
       <c r="E9">
-        <v>1.08773248485356</v>
+        <v>1.007439722710431</v>
       </c>
       <c r="F9">
-        <v>1.09310502195826</v>
+        <v>1.012648438963726</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051136532707346</v>
+        <v>1.041816558960766</v>
       </c>
       <c r="J9">
-        <v>1.080320777143827</v>
+        <v>1.015377259781138</v>
       </c>
       <c r="K9">
-        <v>1.069597156873933</v>
+        <v>1.020148622663137</v>
       </c>
       <c r="L9">
-        <v>1.090735052530401</v>
+        <v>1.020413237884333</v>
       </c>
       <c r="M9">
-        <v>1.096091917014929</v>
+        <v>1.025539583935213</v>
       </c>
       <c r="N9">
-        <v>1.081854956561897</v>
+        <v>1.016819211955427</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.07146018575394</v>
+        <v>0.9658771625015893</v>
       </c>
       <c r="D10">
-        <v>1.064021679323892</v>
+        <v>0.9888498362932275</v>
       </c>
       <c r="E10">
-        <v>1.084483239234318</v>
+        <v>0.9848135349143102</v>
       </c>
       <c r="F10">
-        <v>1.089826813956528</v>
+        <v>0.9899278481212613</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.050109501139201</v>
+        <v>1.03256832424084</v>
       </c>
       <c r="J10">
-        <v>1.077556977330175</v>
+        <v>0.9955132307783923</v>
       </c>
       <c r="K10">
-        <v>1.067370059175899</v>
+        <v>1.003423371624143</v>
       </c>
       <c r="L10">
-        <v>1.087764109778325</v>
+        <v>0.9994625082314869</v>
       </c>
       <c r="M10">
-        <v>1.093090511413509</v>
+        <v>1.004481371275227</v>
       </c>
       <c r="N10">
-        <v>1.079087231835496</v>
+        <v>0.9969269737530612</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.070024907238598</v>
+        <v>0.9546885086613299</v>
       </c>
       <c r="D11">
-        <v>1.062926829781533</v>
+        <v>0.9801610927683404</v>
       </c>
       <c r="E11">
-        <v>1.083067821320809</v>
+        <v>0.9740907427705292</v>
       </c>
       <c r="F11">
-        <v>1.088399034435255</v>
+        <v>0.979164457384985</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.049658934712691</v>
+        <v>1.028153239078032</v>
       </c>
       <c r="J11">
-        <v>1.0763511625339</v>
+        <v>0.9860758219911925</v>
       </c>
       <c r="K11">
-        <v>1.066396899773909</v>
+        <v>0.9954670971433006</v>
       </c>
       <c r="L11">
-        <v>1.086468779840261</v>
+        <v>0.9895183883767863</v>
       </c>
       <c r="M11">
-        <v>1.091782169625628</v>
+        <v>0.9944902968620859</v>
       </c>
       <c r="N11">
-        <v>1.077879704643901</v>
+        <v>0.9874761627628978</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.069490387847994</v>
+        <v>0.9503541708806246</v>
       </c>
       <c r="D12">
-        <v>1.062518879473069</v>
+        <v>0.9767972252355317</v>
       </c>
       <c r="E12">
-        <v>1.082540759283317</v>
+        <v>0.9699401229730916</v>
       </c>
       <c r="F12">
-        <v>1.08786740776236</v>
+        <v>0.974998803617698</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049490679208666</v>
+        <v>1.026439443017432</v>
       </c>
       <c r="J12">
-        <v>1.075901870330168</v>
+        <v>0.9824190866221489</v>
       </c>
       <c r="K12">
-        <v>1.066034070863142</v>
+        <v>0.9923828760607243</v>
       </c>
       <c r="L12">
-        <v>1.085986262962108</v>
+        <v>0.9856668073351516</v>
       </c>
       <c r="M12">
-        <v>1.091294846478407</v>
+        <v>0.9906211903918296</v>
       </c>
       <c r="N12">
-        <v>1.077429774393706</v>
+        <v>0.9838142344101967</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.069605107785405</v>
+        <v>0.9512925742444863</v>
       </c>
       <c r="D13">
-        <v>1.06260644438787</v>
+        <v>0.9775254114809843</v>
       </c>
       <c r="E13">
-        <v>1.082653875933365</v>
+        <v>0.9708385948800337</v>
       </c>
       <c r="F13">
-        <v>1.087981502318384</v>
+        <v>0.9759004981595063</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049526811340022</v>
+        <v>1.026810637244774</v>
       </c>
       <c r="J13">
-        <v>1.075998308921809</v>
+        <v>0.9832108157993712</v>
       </c>
       <c r="K13">
-        <v>1.066111960668942</v>
+        <v>0.9930507083309977</v>
       </c>
       <c r="L13">
-        <v>1.086089827244472</v>
+        <v>0.9865006550985563</v>
       </c>
       <c r="M13">
-        <v>1.091399440503141</v>
+        <v>0.9914588016556699</v>
       </c>
       <c r="N13">
-        <v>1.077526349939209</v>
+        <v>0.984607087933663</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.069980752359962</v>
+        <v>0.9543340825024648</v>
       </c>
       <c r="D14">
-        <v>1.062893134666407</v>
+        <v>0.9798859775549259</v>
       </c>
       <c r="E14">
-        <v>1.083024281222065</v>
+        <v>0.9737512707963666</v>
       </c>
       <c r="F14">
-        <v>1.088355116470743</v>
+        <v>0.9788237417171528</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049645045009721</v>
+        <v>1.028013166589787</v>
       </c>
       <c r="J14">
-        <v>1.076314052648212</v>
+        <v>0.9857768184674247</v>
       </c>
       <c r="K14">
-        <v>1.066366936025466</v>
+        <v>0.9952149338340923</v>
       </c>
       <c r="L14">
-        <v>1.086428923087634</v>
+        <v>0.9892034224185576</v>
       </c>
       <c r="M14">
-        <v>1.091741915036005</v>
+        <v>0.9941738841164702</v>
       </c>
       <c r="N14">
-        <v>1.077842542057919</v>
+        <v>0.9871767346198301</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.070212013531427</v>
+        <v>0.956183335950456</v>
       </c>
       <c r="D15">
-        <v>1.063069604169986</v>
+        <v>0.9813215053045709</v>
       </c>
       <c r="E15">
-        <v>1.083252324982793</v>
+        <v>0.9755226333974804</v>
       </c>
       <c r="F15">
-        <v>1.088585140900558</v>
+        <v>0.9806016217036488</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049717773603644</v>
+        <v>1.028743871626111</v>
       </c>
       <c r="J15">
-        <v>1.076508406321436</v>
+        <v>0.9873368686280831</v>
       </c>
       <c r="K15">
-        <v>1.066523854398047</v>
+        <v>0.9965305404816966</v>
       </c>
       <c r="L15">
-        <v>1.086637668063955</v>
+        <v>0.9908468168574298</v>
       </c>
       <c r="M15">
-        <v>1.09195274530219</v>
+        <v>0.9958248543775773</v>
       </c>
       <c r="N15">
-        <v>1.078037171735652</v>
+        <v>0.9887390002306566</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.071555247406285</v>
+        <v>0.9665965961408325</v>
       </c>
       <c r="D16">
-        <v>1.064094163921975</v>
+        <v>0.989408755656399</v>
       </c>
       <c r="E16">
-        <v>1.084576993958877</v>
+        <v>0.9855034220960769</v>
       </c>
       <c r="F16">
-        <v>1.089921392864552</v>
+        <v>0.9906204358500523</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05013927908106</v>
+        <v>1.032851734071676</v>
       </c>
       <c r="J16">
-        <v>1.077636809104287</v>
+        <v>0.9961199301677848</v>
       </c>
       <c r="K16">
-        <v>1.06743445633499</v>
+        <v>1.003934659323091</v>
       </c>
       <c r="L16">
-        <v>1.087849886009037</v>
+        <v>1.00010198045212</v>
       </c>
       <c r="M16">
-        <v>1.093177154968806</v>
+        <v>1.005123949214998</v>
       </c>
       <c r="N16">
-        <v>1.079167176979885</v>
+        <v>0.9975345347251757</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.072395385073343</v>
+        <v>0.9728464822320282</v>
       </c>
       <c r="D17">
-        <v>1.064734606578346</v>
+        <v>0.9942652225397043</v>
       </c>
       <c r="E17">
-        <v>1.085405627434405</v>
+        <v>0.9914986813444691</v>
       </c>
       <c r="F17">
-        <v>1.090757340100284</v>
+        <v>0.9966396239806955</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050402099985674</v>
+        <v>1.035311081932599</v>
       </c>
       <c r="J17">
-        <v>1.078342172485652</v>
+        <v>1.001389660966956</v>
       </c>
       <c r="K17">
-        <v>1.068003272546249</v>
+        <v>1.008374555929809</v>
       </c>
       <c r="L17">
-        <v>1.088607871208409</v>
+        <v>1.005657429681196</v>
       </c>
       <c r="M17">
-        <v>1.093942835611402</v>
+        <v>1.010706830422409</v>
       </c>
       <c r="N17">
-        <v>1.079873542058158</v>
+        <v>1.002811749146529</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.07288455807638</v>
+        <v>0.9763995613693864</v>
       </c>
       <c r="D18">
-        <v>1.065107370125807</v>
+        <v>0.9970268630911872</v>
       </c>
       <c r="E18">
-        <v>1.085888140512836</v>
+        <v>0.9949086319216806</v>
       </c>
       <c r="F18">
-        <v>1.091244136465302</v>
+        <v>1.000063558308107</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050554835108539</v>
+        <v>1.036706948464709</v>
       </c>
       <c r="J18">
-        <v>1.078752726236446</v>
+        <v>1.004384800465149</v>
       </c>
       <c r="K18">
-        <v>1.068334205324654</v>
+        <v>1.010897114859706</v>
       </c>
       <c r="L18">
-        <v>1.089049135772182</v>
+        <v>1.008815831570333</v>
       </c>
       <c r="M18">
-        <v>1.094388606041602</v>
+        <v>1.013881194743045</v>
       </c>
       <c r="N18">
-        <v>1.080284678842369</v>
+        <v>1.005811142086356</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.073051207943152</v>
+        <v>0.9775961873102198</v>
       </c>
       <c r="D19">
-        <v>1.065234338833569</v>
+        <v>0.9979570483616867</v>
       </c>
       <c r="E19">
-        <v>1.086052527991987</v>
+        <v>0.9960573178848416</v>
       </c>
       <c r="F19">
-        <v>1.091409987365466</v>
+        <v>1.001217016779531</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050606818659833</v>
+        <v>1.037176662764356</v>
       </c>
       <c r="J19">
-        <v>1.078892567499219</v>
+        <v>1.005393390395139</v>
       </c>
       <c r="K19">
-        <v>1.068446901909343</v>
+        <v>1.011746405902347</v>
       </c>
       <c r="L19">
-        <v>1.089199451629631</v>
+        <v>1.009879545044472</v>
       </c>
       <c r="M19">
-        <v>1.09454046120641</v>
+        <v>1.014950345113297</v>
       </c>
       <c r="N19">
-        <v>1.080424718695775</v>
+        <v>1.006821164329734</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.072305336031103</v>
+        <v>0.9721856753713976</v>
       </c>
       <c r="D20">
-        <v>1.064665975686601</v>
+        <v>0.9937516631016501</v>
       </c>
       <c r="E20">
-        <v>1.085316807470102</v>
+        <v>0.9908646233721603</v>
       </c>
       <c r="F20">
-        <v>1.090667733649361</v>
+        <v>0.9960029959118279</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050373960223866</v>
+        <v>1.035051289082447</v>
       </c>
       <c r="J20">
-        <v>1.078266584204605</v>
+        <v>1.000832559963291</v>
       </c>
       <c r="K20">
-        <v>1.067942331890503</v>
+        <v>1.007905279045052</v>
       </c>
       <c r="L20">
-        <v>1.088526635316904</v>
+        <v>1.005070032180412</v>
       </c>
       <c r="M20">
-        <v>1.093860772287593</v>
+        <v>1.010116493823357</v>
       </c>
       <c r="N20">
-        <v>1.079797846433081</v>
+        <v>1.002253856995538</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.069870173187928</v>
+        <v>0.9534436539985569</v>
       </c>
       <c r="D21">
-        <v>1.062808746964512</v>
+        <v>0.9791948382562399</v>
       </c>
       <c r="E21">
-        <v>1.08291524265972</v>
+        <v>0.9728984657311541</v>
       </c>
       <c r="F21">
-        <v>1.088245132231614</v>
+        <v>0.9779678234159404</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049610252974568</v>
+        <v>1.027661206981968</v>
       </c>
       <c r="J21">
-        <v>1.076221112899697</v>
+        <v>0.9850256172554654</v>
       </c>
       <c r="K21">
-        <v>1.066291889766628</v>
+        <v>0.9945813899969342</v>
       </c>
       <c r="L21">
-        <v>1.086329106039763</v>
+        <v>0.9884121420140156</v>
       </c>
       <c r="M21">
-        <v>1.09164110230491</v>
+        <v>0.9933789797459212</v>
       </c>
       <c r="N21">
-        <v>1.077749470324301</v>
+        <v>0.9864244666159857</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.068331008788447</v>
+        <v>0.9406043997548237</v>
       </c>
       <c r="D22">
-        <v>1.061633643827671</v>
+        <v>0.96923531599711</v>
       </c>
       <c r="E22">
-        <v>1.081397667827493</v>
+        <v>0.9606103817245416</v>
       </c>
       <c r="F22">
-        <v>1.086714487196137</v>
+        <v>0.9656366197360092</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049124893454625</v>
+        <v>1.022578341560213</v>
       </c>
       <c r="J22">
-        <v>1.074926931971127</v>
+        <v>0.9741925092215351</v>
       </c>
       <c r="K22">
-        <v>1.065246340990317</v>
+        <v>0.9854418963109529</v>
       </c>
       <c r="L22">
-        <v>1.084939465379039</v>
+        <v>0.977004733881391</v>
       </c>
       <c r="M22">
-        <v>1.090237696631275</v>
+        <v>0.9819210051264533</v>
       </c>
       <c r="N22">
-        <v>1.076453451510368</v>
+        <v>0.9755759743260721</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.069147729010615</v>
+        <v>0.9475238531705356</v>
       </c>
       <c r="D23">
-        <v>1.062257299485673</v>
+        <v>0.9746013133954934</v>
       </c>
       <c r="E23">
-        <v>1.08220289832196</v>
+        <v>0.9672307667657988</v>
       </c>
       <c r="F23">
-        <v>1.087526631606146</v>
+        <v>0.9722798348361046</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049382688561986</v>
+        <v>1.025319404649046</v>
       </c>
       <c r="J23">
-        <v>1.075613782892475</v>
+        <v>0.9800310668685118</v>
       </c>
       <c r="K23">
-        <v>1.065801360580561</v>
+        <v>0.9903683649500513</v>
       </c>
       <c r="L23">
-        <v>1.085676908119022</v>
+        <v>0.9831519724461214</v>
       </c>
       <c r="M23">
-        <v>1.090982421685812</v>
+        <v>0.9880951066448561</v>
       </c>
       <c r="N23">
-        <v>1.077141277838808</v>
+        <v>0.9814228233945999</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.072346027988549</v>
+        <v>0.9724845488033816</v>
       </c>
       <c r="D24">
-        <v>1.064696989490179</v>
+        <v>0.9939839364327772</v>
       </c>
       <c r="E24">
-        <v>1.085356943904888</v>
+        <v>0.9911513936182439</v>
       </c>
       <c r="F24">
-        <v>1.09070822541017</v>
+        <v>0.9962909273925162</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050386677112657</v>
+        <v>1.035168796790002</v>
       </c>
       <c r="J24">
-        <v>1.078300741990523</v>
+        <v>1.001084530995592</v>
       </c>
       <c r="K24">
-        <v>1.067969870969012</v>
+        <v>1.008117531050668</v>
       </c>
       <c r="L24">
-        <v>1.088563344961076</v>
+        <v>1.005335703292912</v>
       </c>
       <c r="M24">
-        <v>1.093897855759532</v>
+        <v>1.010383493104233</v>
       </c>
       <c r="N24">
-        <v>1.079832052726973</v>
+        <v>1.002506185855607</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.076023681816433</v>
+        <v>0.9978687034780946</v>
       </c>
       <c r="D25">
-        <v>1.067497003861766</v>
+        <v>1.01372118531555</v>
       </c>
       <c r="E25">
-        <v>1.088985210323747</v>
+        <v>1.015537559164296</v>
       </c>
       <c r="F25">
-        <v>1.094369138141114</v>
+        <v>1.020783120100617</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.051529683020811</v>
+        <v>1.04510012757884</v>
       </c>
       <c r="J25">
-        <v>1.081384693757194</v>
+        <v>1.022468007756838</v>
       </c>
       <c r="K25">
-        <v>1.07045314071996</v>
+        <v>1.026110167252796</v>
       </c>
       <c r="L25">
-        <v>1.091879467701383</v>
+        <v>1.027899369357149</v>
       </c>
       <c r="M25">
-        <v>1.097248304454665</v>
+        <v>1.033067149715432</v>
       </c>
       <c r="N25">
-        <v>1.082920384058887</v>
+        <v>1.023920029606573</v>
       </c>
     </row>
   </sheetData>
